--- a/Resources/2010/Basic_Percentile_2010.xlsx
+++ b/Resources/2010/Basic_Percentile_2010.xlsx
@@ -1468,7 +1468,7 @@
     <t>Andrei Kirilenko</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Luol Deng</t>
@@ -1651,7 +1651,7 @@
     <t>Jason Thompson</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Roy Hibbert</t>
@@ -1744,7 +1744,7 @@
     <t>Brandon Rush</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Marvin Williams</t>
@@ -1783,7 +1783,7 @@
     <t>Kevin Martin</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>George Hill</t>
@@ -1843,13 +1843,13 @@
     <t>C.J. Watson</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Anthony Morrow</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Jrue Holiday</t>
@@ -1867,7 +1867,7 @@
     <t>Brad Miller</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Marcus Thornton</t>
